--- a/biology/Médecine/Académie_suisse_des_sciences_médicales/Académie_suisse_des_sciences_médicales.xlsx
+++ b/biology/Médecine/Académie_suisse_des_sciences_médicales/Académie_suisse_des_sciences_médicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_suisse_des_sciences_m%C3%A9dicales</t>
+          <t>Académie_suisse_des_sciences_médicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie suisse des sciences médicales (ASSM) est une organisation suisse fondée en 1943 et ayant son siège à Berne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_suisse_des_sciences_m%C3%A9dicales</t>
+          <t>Académie_suisse_des_sciences_médicales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1943, les cinq facultés de médecine, les deux facultés de médecine vétérinaire et la Fédération des médecins suisses FMH ont fondé l'Académie Suisse des Sciences Médicales comme institution de promotion de la recherche.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_suisse_des_sciences_m%C3%A9dicales</t>
+          <t>Académie_suisse_des_sciences_médicales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>But</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec ses deux programmes majeurs, « La science médicale et la pratique » et « Médecine et société », l'ASSM se fixe aujourd'hui les priorités suivantes :
 la promotion de la relève scientifique, en particulier dans la recherche clinique ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_suisse_des_sciences_m%C3%A9dicales</t>
+          <t>Académie_suisse_des_sciences_médicales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ASSM est organisée en tant que fondation, dont le Sénat est l’organe suprême. Le Sénat se compose des délégués, des membres individuels, des membres correspondants et des membres d'honneur, environ 230 personnes au total. Le Comité de direction exécute les décisions du Sénat. Le Secrétariat général, ayant son siège à la Maison des Académies à Berne, exécute les décisions prises par le Comité de direction.
 Depuis le 1er novembre 2016 Daniel Scheidegger est le Président de l'ASSM. Le Secrétaire général, Hermann Amstad, dépend directement du Président de l'ASSM.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_suisse_des_sciences_m%C3%A9dicales</t>
+          <t>Académie_suisse_des_sciences_médicales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Fonds et Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fonds Helmut Hartweg
 Fonds Käthe Zingg-Schwichtenberg
